--- a/database/industries/folad/hormoz/product/yearly.xlsx
+++ b/database/industries/folad/hormoz/product/yearly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\folad\hormoz\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\folad\hormoz\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E52D53B4-499C-43A9-B0E5-88FA47BE2A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="9420"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -108,10 +109,10 @@
     <t>نرخ فروش</t>
   </si>
   <si>
+    <t>ریال / ریال</t>
+  </si>
+  <si>
     <t>تن / ریال</t>
-  </si>
-  <si>
-    <t>ریال / ریال</t>
   </si>
   <si>
     <t>مبلغ بهای تمام شده</t>
@@ -123,7 +124,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -293,7 +294,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -305,7 +306,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -352,6 +353,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -387,6 +405,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -538,17 +573,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -558,7 +593,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -570,7 +605,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -582,7 +617,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -592,7 +627,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -604,7 +639,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -616,7 +651,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -626,7 +661,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -648,7 +683,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -658,7 +693,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -682,7 +717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>10</v>
       </c>
@@ -706,7 +741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>14</v>
       </c>
@@ -730,7 +765,7 @@
         <v>1439939</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>15</v>
       </c>
@@ -754,7 +789,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>16</v>
       </c>
@@ -778,7 +813,7 @@
         <v>20269</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>17</v>
       </c>
@@ -802,7 +837,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>18</v>
       </c>
@@ -826,7 +861,7 @@
         <v>140625</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>19</v>
       </c>
@@ -850,7 +885,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="12" t="s">
         <v>20</v>
       </c>
@@ -872,7 +907,7 @@
         <v>1600833</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -882,7 +917,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -892,7 +927,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -902,7 +937,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B22" s="7" t="s">
         <v>21</v>
       </c>
@@ -924,7 +959,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -934,12 +969,12 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="9" t="s">
@@ -958,12 +993,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="11" t="s">
@@ -982,7 +1017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
         <v>14</v>
       </c>
@@ -1006,7 +1041,7 @@
         <v>1423090</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
         <v>15</v>
       </c>
@@ -1030,7 +1065,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
         <v>16</v>
       </c>
@@ -1054,7 +1089,7 @@
         <v>14621</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
         <v>22</v>
       </c>
@@ -1078,7 +1113,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
         <v>17</v>
       </c>
@@ -1102,7 +1137,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
         <v>18</v>
       </c>
@@ -1126,7 +1161,7 @@
         <v>61267</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="8" t="s">
         <v>23</v>
       </c>
@@ -1150,7 +1185,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="10" t="s">
         <v>24</v>
       </c>
@@ -1174,7 +1209,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="8" t="s">
         <v>25</v>
       </c>
@@ -1196,7 +1231,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
         <v>20</v>
       </c>
@@ -1218,7 +1253,7 @@
         <v>1498978</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1228,7 +1263,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1238,7 +1273,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1248,7 +1283,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B39" s="7" t="s">
         <v>26</v>
       </c>
@@ -1270,7 +1305,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1280,7 +1315,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="8" t="s">
         <v>10</v>
       </c>
@@ -1304,7 +1339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
         <v>14</v>
       </c>
@@ -1328,7 +1363,7 @@
         <v>216409586</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="8" t="s">
         <v>15</v>
       </c>
@@ -1352,7 +1387,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
         <v>16</v>
       </c>
@@ -1376,7 +1411,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="8" t="s">
         <v>22</v>
       </c>
@@ -1400,7 +1435,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>17</v>
       </c>
@@ -1424,7 +1459,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
         <v>18</v>
       </c>
@@ -1448,7 +1483,7 @@
         <v>4974604</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>23</v>
       </c>
@@ -1472,7 +1507,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="8" t="s">
         <v>24</v>
       </c>
@@ -1496,7 +1531,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>25</v>
       </c>
@@ -1520,7 +1555,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="12" t="s">
         <v>20</v>
       </c>
@@ -1542,7 +1577,7 @@
         <v>221404720</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1552,7 +1587,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1562,7 +1597,7 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1572,7 +1607,7 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B55" s="7" t="s">
         <v>28</v>
       </c>
@@ -1594,7 +1629,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1604,7 +1639,7 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
         <v>10</v>
       </c>
@@ -1628,12 +1663,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D58" s="11"/>
       <c r="E58" s="11" t="s">
@@ -1652,12 +1687,12 @@
         <v>152070204</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D59" s="9"/>
       <c r="E59" s="9" t="s">
@@ -1676,12 +1711,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D60" s="11"/>
       <c r="E60" s="11">
@@ -1700,12 +1735,12 @@
         <v>1404145</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D61" s="9"/>
       <c r="E61" s="9" t="s">
@@ -1724,12 +1759,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D62" s="11"/>
       <c r="E62" s="11" t="s">
@@ -1748,12 +1783,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D63" s="9"/>
       <c r="E63" s="9">
@@ -1772,12 +1807,12 @@
         <v>81195489</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="10" t="s">
         <v>23</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D64" s="11"/>
       <c r="E64" s="11">
@@ -1796,12 +1831,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D65" s="9"/>
       <c r="E65" s="9">
@@ -1820,12 +1855,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="10" t="s">
         <v>25</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D66" s="11"/>
       <c r="E66" s="11" t="s">
@@ -1844,7 +1879,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -1854,7 +1889,7 @@
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -1864,7 +1899,7 @@
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -1874,7 +1909,7 @@
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
     </row>
-    <row r="70" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B70" s="7" t="s">
         <v>31</v>
       </c>
@@ -1896,7 +1931,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -1906,7 +1941,7 @@
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="8" t="s">
         <v>10</v>
       </c>
@@ -1930,7 +1965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="10" t="s">
         <v>14</v>
       </c>
@@ -1954,7 +1989,7 @@
         <v>-123882286</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="8" t="s">
         <v>15</v>
       </c>
@@ -1978,7 +2013,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="10" t="s">
         <v>16</v>
       </c>
@@ -2002,7 +2037,7 @@
         <v>-58402</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="8" t="s">
         <v>22</v>
       </c>
@@ -2026,7 +2061,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="10" t="s">
         <v>18</v>
       </c>
@@ -2050,7 +2085,7 @@
         <v>-3324586</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="8" t="s">
         <v>25</v>
       </c>
@@ -2074,7 +2109,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="14" t="s">
         <v>20</v>
       </c>
@@ -2096,7 +2131,7 @@
         <v>-127265274</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2106,7 +2141,7 @@
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -2116,7 +2151,7 @@
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -2126,7 +2161,7 @@
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
     </row>
-    <row r="83" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B83" s="7" t="s">
         <v>32</v>
       </c>
@@ -2148,7 +2183,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -2158,7 +2193,7 @@
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>10</v>
       </c>
@@ -2182,7 +2217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="10" t="s">
         <v>14</v>
       </c>
@@ -2206,7 +2241,7 @@
         <v>92527300</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="8" t="s">
         <v>15</v>
       </c>
@@ -2230,7 +2265,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="10" t="s">
         <v>16</v>
       </c>
@@ -2254,7 +2289,7 @@
         <v>-37872</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="8" t="s">
         <v>22</v>
       </c>
@@ -2278,7 +2313,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="10" t="s">
         <v>18</v>
       </c>
@@ -2302,7 +2337,7 @@
         <v>1650018</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="8" t="s">
         <v>25</v>
       </c>
@@ -2326,7 +2361,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="14" t="s">
         <v>20</v>
       </c>
